--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Nouvelle-Aquitaine/Pandémie_de_Covid-19_en_Nouvelle-Aquitaine.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Nouvelle-Aquitaine/Pandémie_de_Covid-19_en_Nouvelle-Aquitaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Nouvelle-Aquitaine</t>
+          <t>Pandémie_de_Covid-19_en_Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la situation en ce qui concerne la pandémie de maladie à coronavirus de 2019-2020 (COVID-19) en Nouvelle-Aquitaine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Nouvelle-Aquitaine</t>
+          <t>Pandémie_de_Covid-19_en_Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nouveaux cas quotidiens
-Hospitalisations
-Décès
-Lecture : dans la semaine du lundi 30 mars au dimanche 5 avril 2020, dans les hôpitaux, 1 300 personnes supplémentaires sont décédées d'une cause attribuée à la Covid-19.
-Réanimations
-Statistiques par départements</t>
+          <t>Nouveaux cas quotidiens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Nouvelle-Aquitaine</t>
+          <t>Pandémie_de_Covid-19_en_Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Clusters</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Bilan humain</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lecture : dans la semaine du lundi 30 mars au dimanche 5 avril 2020, dans les hôpitaux, 1 300 personnes supplémentaires sont décédées d'une cause attribuée à la Covid-19.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Nouvelle-Aquitaine</t>
+          <t>Pandémie_de_Covid-19_en_Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,15 +594,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Clusters</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_en_Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_en_Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Mesures locales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dépistage
-La région Nouvelle-Aquitaine et l'ARS mettent depuis le déconfinement des tests nasaux gratuits à ceux qui souhaitent se faire dépister. Cela a pour objectif de savoir à quelle vitesse circule, se reproduit le virus, et d'identifier les différents clusters présents dans la région.
-Port du masque
-Afin d'éviter une deuxième vague du SARS-CoV-2, la ville de La Rochelle, a mis en place un décret obligeant le port du masque sur le vieux port de La Rochelle. Cette mesure s'applique à partir du 22 juillet et restera en vigueur jusqu'à la fin du mois d'août. Elle s'inscrit dans la lignée de la politique mise en place par le gouvernement qui consiste au port du masque obligatoire dans la plupart des lieux clos.Mais le maire de La Rochelle impose l'obligation du masque aussi bien en plein air.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dépistage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région Nouvelle-Aquitaine et l'ARS mettent depuis le déconfinement des tests nasaux gratuits à ceux qui souhaitent se faire dépister. Cela a pour objectif de savoir à quelle vitesse circule, se reproduit le virus, et d'identifier les différents clusters présents dans la région.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_en_Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_en_Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mesures locales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Port du masque</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin d'éviter une deuxième vague du SARS-CoV-2, la ville de La Rochelle, a mis en place un décret obligeant le port du masque sur le vieux port de La Rochelle. Cette mesure s'applique à partir du 22 juillet et restera en vigueur jusqu'à la fin du mois d'août. Elle s'inscrit dans la lignée de la politique mise en place par le gouvernement qui consiste au port du masque obligatoire dans la plupart des lieux clos.Mais le maire de La Rochelle impose l'obligation du masque aussi bien en plein air.
 </t>
         </is>
       </c>
